--- a/datasets/Output Regression Training Charts.xlsx
+++ b/datasets/Output Regression Training Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nivedita.biswas\Desktop\stuff\project\SuicidePredictionModel\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E1314-B8B4-46A7-9966-AB2DCE6B79AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2DC11C-B813-4019-A425-E2E30D1AAB89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,19 @@
     <sheet name="Professional - Statuses" sheetId="2" r:id="rId2"/>
     <sheet name="Educational-Statuses" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Social-Statuses'!$A$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Social-Statuses'!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Social-Statuses'!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Social-Statuses'!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Social-Statuses'!$D$2:$D$51</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="29">
   <si>
     <t>YEAR</t>
   </si>
@@ -607,7 +614,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,6 +629,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -714,30 +724,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2400" b="1" u="sng">
+              <a:rPr lang="en-US" sz="2400" b="1" u="none">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Social</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2400" b="1" u="sng" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" u="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t> Cataegories vs Total Deaths and Probability of Deaths in Years</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2400" b="1" u="sng">
+            <a:endParaRPr lang="en-US" sz="2400" b="1" u="none">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
@@ -964,151 +968,31 @@
                   <c:pt idx="0">
                     <c:v>2001</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2001</c:v>
-                  </c:pt>
                   <c:pt idx="5">
                     <c:v>2002</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2002</c:v>
-                  </c:pt>
                   <c:pt idx="10">
                     <c:v>2003</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2003</c:v>
-                  </c:pt>
                   <c:pt idx="15">
                     <c:v>2004</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2004</c:v>
-                  </c:pt>
                   <c:pt idx="20">
                     <c:v>2005</c:v>
                   </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2005</c:v>
-                  </c:pt>
                   <c:pt idx="25">
                     <c:v>2006</c:v>
                   </c:pt>
-                  <c:pt idx="26">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2006</c:v>
-                  </c:pt>
                   <c:pt idx="30">
                     <c:v>2007</c:v>
                   </c:pt>
-                  <c:pt idx="31">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>2007</c:v>
-                  </c:pt>
                   <c:pt idx="35">
                     <c:v>2008</c:v>
                   </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2008</c:v>
-                  </c:pt>
                   <c:pt idx="40">
                     <c:v>2009</c:v>
                   </c:pt>
-                  <c:pt idx="41">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>2009</c:v>
-                  </c:pt>
                   <c:pt idx="45">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
                     <c:v>2010</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1483,151 +1367,31 @@
                   <c:pt idx="0">
                     <c:v>2001</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2001</c:v>
-                  </c:pt>
                   <c:pt idx="5">
                     <c:v>2002</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2002</c:v>
-                  </c:pt>
                   <c:pt idx="10">
                     <c:v>2003</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2003</c:v>
-                  </c:pt>
                   <c:pt idx="15">
                     <c:v>2004</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2004</c:v>
-                  </c:pt>
                   <c:pt idx="20">
                     <c:v>2005</c:v>
                   </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2005</c:v>
-                  </c:pt>
                   <c:pt idx="25">
                     <c:v>2006</c:v>
                   </c:pt>
-                  <c:pt idx="26">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2006</c:v>
-                  </c:pt>
                   <c:pt idx="30">
                     <c:v>2007</c:v>
                   </c:pt>
-                  <c:pt idx="31">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>2007</c:v>
-                  </c:pt>
                   <c:pt idx="35">
                     <c:v>2008</c:v>
                   </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2008</c:v>
-                  </c:pt>
                   <c:pt idx="40">
                     <c:v>2009</c:v>
                   </c:pt>
-                  <c:pt idx="41">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>2009</c:v>
-                  </c:pt>
                   <c:pt idx="45">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
                     <c:v>2010</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2588,151 +2352,31 @@
                   <c:pt idx="0">
                     <c:v>2001</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2001</c:v>
-                  </c:pt>
                   <c:pt idx="5">
                     <c:v>2002</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2002</c:v>
-                  </c:pt>
                   <c:pt idx="10">
                     <c:v>2003</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2003</c:v>
-                  </c:pt>
                   <c:pt idx="15">
                     <c:v>2004</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2004</c:v>
-                  </c:pt>
                   <c:pt idx="20">
                     <c:v>2005</c:v>
                   </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2005</c:v>
-                  </c:pt>
                   <c:pt idx="25">
                     <c:v>2006</c:v>
                   </c:pt>
-                  <c:pt idx="26">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2006</c:v>
-                  </c:pt>
                   <c:pt idx="30">
                     <c:v>2007</c:v>
                   </c:pt>
-                  <c:pt idx="31">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>2007</c:v>
-                  </c:pt>
                   <c:pt idx="35">
                     <c:v>2008</c:v>
                   </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2008</c:v>
-                  </c:pt>
                   <c:pt idx="40">
                     <c:v>2009</c:v>
                   </c:pt>
-                  <c:pt idx="41">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>2009</c:v>
-                  </c:pt>
                   <c:pt idx="45">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
                     <c:v>2010</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3107,151 +2751,31 @@
                   <c:pt idx="0">
                     <c:v>2001</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2001</c:v>
-                  </c:pt>
                   <c:pt idx="5">
                     <c:v>2002</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2002</c:v>
-                  </c:pt>
                   <c:pt idx="10">
                     <c:v>2003</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2003</c:v>
-                  </c:pt>
                   <c:pt idx="15">
                     <c:v>2004</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2004</c:v>
-                  </c:pt>
                   <c:pt idx="20">
                     <c:v>2005</c:v>
                   </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2005</c:v>
-                  </c:pt>
                   <c:pt idx="25">
                     <c:v>2006</c:v>
                   </c:pt>
-                  <c:pt idx="26">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2006</c:v>
-                  </c:pt>
                   <c:pt idx="30">
                     <c:v>2007</c:v>
                   </c:pt>
-                  <c:pt idx="31">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>2007</c:v>
-                  </c:pt>
                   <c:pt idx="35">
                     <c:v>2008</c:v>
                   </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2008</c:v>
-                  </c:pt>
                   <c:pt idx="40">
                     <c:v>2009</c:v>
                   </c:pt>
-                  <c:pt idx="41">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>2009</c:v>
-                  </c:pt>
                   <c:pt idx="45">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
                     <c:v>2010</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4318,241 +3842,31 @@
                   <c:pt idx="0">
                     <c:v>2001</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2001</c:v>
-                  </c:pt>
                   <c:pt idx="8">
                     <c:v>2002</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2002</c:v>
-                  </c:pt>
                   <c:pt idx="16">
                     <c:v>2003</c:v>
                   </c:pt>
-                  <c:pt idx="17">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>2003</c:v>
-                  </c:pt>
                   <c:pt idx="24">
                     <c:v>2004</c:v>
                   </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>2004</c:v>
-                  </c:pt>
                   <c:pt idx="32">
                     <c:v>2005</c:v>
                   </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2005</c:v>
-                  </c:pt>
                   <c:pt idx="40">
                     <c:v>2006</c:v>
                   </c:pt>
-                  <c:pt idx="41">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>2006</c:v>
-                  </c:pt>
                   <c:pt idx="48">
                     <c:v>2007</c:v>
                   </c:pt>
-                  <c:pt idx="49">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>2007</c:v>
-                  </c:pt>
                   <c:pt idx="56">
                     <c:v>2008</c:v>
                   </c:pt>
-                  <c:pt idx="57">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>2008</c:v>
-                  </c:pt>
                   <c:pt idx="64">
                     <c:v>2009</c:v>
                   </c:pt>
-                  <c:pt idx="65">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>2009</c:v>
-                  </c:pt>
                   <c:pt idx="72">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
                     <c:v>2010</c:v>
                   </c:pt>
                 </c:lvl>
@@ -5107,241 +4421,31 @@
                   <c:pt idx="0">
                     <c:v>2001</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2001</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2001</c:v>
-                  </c:pt>
                   <c:pt idx="8">
                     <c:v>2002</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2002</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2002</c:v>
-                  </c:pt>
                   <c:pt idx="16">
                     <c:v>2003</c:v>
                   </c:pt>
-                  <c:pt idx="17">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2003</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>2003</c:v>
-                  </c:pt>
                   <c:pt idx="24">
                     <c:v>2004</c:v>
                   </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>2004</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>2004</c:v>
-                  </c:pt>
                   <c:pt idx="32">
                     <c:v>2005</c:v>
                   </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>2005</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2005</c:v>
-                  </c:pt>
                   <c:pt idx="40">
                     <c:v>2006</c:v>
                   </c:pt>
-                  <c:pt idx="41">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2006</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>2006</c:v>
-                  </c:pt>
                   <c:pt idx="48">
                     <c:v>2007</c:v>
                   </c:pt>
-                  <c:pt idx="49">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>2007</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>2007</c:v>
-                  </c:pt>
                   <c:pt idx="56">
                     <c:v>2008</c:v>
                   </c:pt>
-                  <c:pt idx="57">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>2008</c:v>
-                  </c:pt>
                   <c:pt idx="64">
                     <c:v>2009</c:v>
                   </c:pt>
-                  <c:pt idx="65">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>2009</c:v>
-                  </c:pt>
                   <c:pt idx="72">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
                     <c:v>2010</c:v>
                   </c:pt>
                 </c:lvl>
@@ -7870,16 +6974,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1114424</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1038224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7952,16 +7056,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>477786</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>121673</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>547510</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>15363</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>163153</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>600842</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>60100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8288,8 +7392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8315,7 +7419,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>2001</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8329,9 +7433,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8343,9 +7445,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -8357,9 +7457,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -8371,9 +7469,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -8385,7 +7481,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>2002</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8399,9 +7495,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -8413,9 +7507,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -8427,9 +7519,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -8441,9 +7531,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -8455,7 +7543,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>2003</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -8469,9 +7557,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -8483,9 +7569,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -8497,9 +7581,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -8511,9 +7593,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
@@ -8525,7 +7605,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>2004</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8539,9 +7619,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -8553,9 +7631,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -8567,9 +7643,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -8581,9 +7655,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
@@ -8595,7 +7667,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>2005</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8609,9 +7681,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -8623,9 +7693,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -8637,9 +7705,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
@@ -8651,9 +7717,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
@@ -8665,7 +7729,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>2006</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -8679,9 +7743,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -8693,9 +7755,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -8707,9 +7767,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
@@ -8721,9 +7779,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
@@ -8735,7 +7791,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>2007</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -8749,9 +7805,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -8763,9 +7817,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -8777,9 +7829,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
@@ -8791,9 +7841,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
@@ -8805,7 +7853,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>2008</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -8819,9 +7867,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -8833,9 +7879,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -8847,9 +7891,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
@@ -8861,9 +7903,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
@@ -8875,7 +7915,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>2009</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -8889,9 +7929,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -8903,9 +7941,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
@@ -8917,9 +7953,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8931,9 +7965,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
@@ -8945,7 +7977,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="6">
         <v>2010</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -8959,9 +7991,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -8973,9 +8003,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
@@ -8987,9 +8015,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
@@ -9001,9 +8027,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
@@ -9015,6 +8039,18 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9024,8 +8060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9051,7 +8087,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>2001</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9065,9 +8101,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -9079,9 +8113,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -9093,9 +8125,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -9107,9 +8137,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -9121,7 +8149,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>2002</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -9135,9 +8163,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -9149,9 +8175,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -9163,9 +8187,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -9177,9 +8199,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -9191,7 +8211,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>2003</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9205,9 +8225,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
@@ -9219,9 +8237,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -9233,9 +8249,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -9247,9 +8261,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
@@ -9261,7 +8273,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>2004</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -9275,9 +8287,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -9289,9 +8299,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
@@ -9303,9 +8311,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
@@ -9317,9 +8323,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
@@ -9331,7 +8335,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>2005</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -9345,9 +8349,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
@@ -9359,9 +8361,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
@@ -9373,9 +8373,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
@@ -9387,9 +8385,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
@@ -9401,7 +8397,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>2006</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -9415,9 +8411,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
@@ -9429,9 +8423,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A29" s="6"/>
       <c r="B29" s="4" t="s">
         <v>15</v>
       </c>
@@ -9443,9 +8435,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A30" s="6"/>
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
@@ -9457,9 +8447,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
@@ -9471,7 +8459,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>2007</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -9485,9 +8473,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A33" s="6"/>
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
@@ -9499,9 +8485,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
@@ -9513,9 +8497,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="4" t="s">
         <v>16</v>
       </c>
@@ -9527,9 +8509,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
@@ -9541,7 +8521,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>2008</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -9555,9 +8535,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
@@ -9569,9 +8547,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
         <v>15</v>
       </c>
@@ -9583,9 +8559,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A40" s="6"/>
       <c r="B40" s="4" t="s">
         <v>16</v>
       </c>
@@ -9597,9 +8571,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
@@ -9611,7 +8583,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>2009</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -9625,9 +8597,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="4" t="s">
         <v>14</v>
       </c>
@@ -9639,9 +8609,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A44" s="6"/>
       <c r="B44" s="4" t="s">
         <v>15</v>
       </c>
@@ -9653,9 +8621,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A45" s="6"/>
       <c r="B45" s="4" t="s">
         <v>16</v>
       </c>
@@ -9667,9 +8633,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A46" s="6"/>
       <c r="B46" s="4" t="s">
         <v>17</v>
       </c>
@@ -9681,7 +8645,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="6">
         <v>2010</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -9695,9 +8659,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A48" s="6"/>
       <c r="B48" s="4" t="s">
         <v>14</v>
       </c>
@@ -9709,9 +8671,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="4" t="s">
         <v>15</v>
       </c>
@@ -9723,9 +8683,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A50" s="6"/>
       <c r="B50" s="4" t="s">
         <v>16</v>
       </c>
@@ -9737,9 +8695,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A51" s="6"/>
       <c r="B51" s="4" t="s">
         <v>17</v>
       </c>
@@ -9751,6 +8707,18 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9760,8 +8728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A19" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9788,7 +8756,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>2001</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9802,9 +8770,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -9816,9 +8782,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -9830,9 +8794,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -9844,9 +8806,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -9858,9 +8818,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -9872,9 +8830,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -9886,9 +8842,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2001</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -9900,7 +8854,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>2002</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9914,9 +8868,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -9928,9 +8880,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -9942,9 +8892,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -9956,9 +8904,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -9970,9 +8916,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -9984,9 +8928,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -9998,9 +8940,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2002</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -10012,7 +8952,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>2003</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -10026,9 +8966,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
@@ -10040,9 +8978,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
@@ -10054,9 +8990,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -10068,9 +9002,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
@@ -10082,9 +9014,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
@@ -10096,9 +9026,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
@@ -10110,9 +9038,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2003</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
@@ -10124,7 +9050,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>2004</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -10138,9 +9064,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -10152,9 +9076,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -10166,9 +9088,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -10180,9 +9100,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -10194,9 +9112,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -10208,9 +9124,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -10222,9 +9136,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2004</v>
-      </c>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -10236,7 +9148,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>2005</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -10250,9 +9162,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
@@ -10264,9 +9174,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
@@ -10278,9 +9186,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -10292,9 +9198,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
@@ -10306,9 +9210,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
@@ -10320,9 +9222,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
@@ -10334,9 +9234,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>2005</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
@@ -10348,7 +9246,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>2006</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -10362,9 +9260,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
@@ -10376,9 +9272,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
@@ -10390,9 +9284,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
@@ -10404,9 +9296,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
@@ -10418,9 +9308,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
@@ -10432,9 +9320,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>27</v>
       </c>
@@ -10446,9 +9332,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>2006</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
@@ -10460,7 +9344,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="6">
         <v>2007</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -10474,9 +9358,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
@@ -10488,9 +9370,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>23</v>
       </c>
@@ -10502,9 +9382,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>24</v>
       </c>
@@ -10516,9 +9394,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>25</v>
       </c>
@@ -10530,9 +9406,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
@@ -10544,9 +9418,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
@@ -10558,9 +9430,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>2007</v>
-      </c>
+      <c r="A57" s="6"/>
       <c r="B57" s="1" t="s">
         <v>28</v>
       </c>
@@ -10572,7 +9442,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="6">
         <v>2008</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -10586,9 +9456,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>22</v>
       </c>
@@ -10600,9 +9468,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>23</v>
       </c>
@@ -10614,9 +9480,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>24</v>
       </c>
@@ -10628,9 +9492,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>25</v>
       </c>
@@ -10642,9 +9504,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>26</v>
       </c>
@@ -10656,9 +9516,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>27</v>
       </c>
@@ -10670,9 +9528,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>2008</v>
-      </c>
+      <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>28</v>
       </c>
@@ -10684,7 +9540,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="6">
         <v>2009</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -10698,9 +9554,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>22</v>
       </c>
@@ -10712,9 +9566,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A68" s="6"/>
       <c r="B68" s="1" t="s">
         <v>23</v>
       </c>
@@ -10726,9 +9578,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A69" s="6"/>
       <c r="B69" s="1" t="s">
         <v>24</v>
       </c>
@@ -10740,9 +9590,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A70" s="6"/>
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
@@ -10754,9 +9602,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A71" s="6"/>
       <c r="B71" s="1" t="s">
         <v>26</v>
       </c>
@@ -10768,9 +9614,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A72" s="6"/>
       <c r="B72" s="1" t="s">
         <v>27</v>
       </c>
@@ -10782,9 +9626,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>2009</v>
-      </c>
+      <c r="A73" s="6"/>
       <c r="B73" s="1" t="s">
         <v>28</v>
       </c>
@@ -10796,7 +9638,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74" s="6">
         <v>2010</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -10810,9 +9652,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A75" s="6"/>
       <c r="B75" s="1" t="s">
         <v>22</v>
       </c>
@@ -10824,9 +9664,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A76" s="6"/>
       <c r="B76" s="1" t="s">
         <v>23</v>
       </c>
@@ -10838,9 +9676,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A77" s="6"/>
       <c r="B77" s="1" t="s">
         <v>24</v>
       </c>
@@ -10852,9 +9688,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A78" s="6"/>
       <c r="B78" s="1" t="s">
         <v>25</v>
       </c>
@@ -10866,9 +9700,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A79" s="6"/>
       <c r="B79" s="1" t="s">
         <v>26</v>
       </c>
@@ -10880,9 +9712,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A80" s="6"/>
       <c r="B80" s="1" t="s">
         <v>27</v>
       </c>
@@ -10894,9 +9724,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>2010</v>
-      </c>
+      <c r="A81" s="6"/>
       <c r="B81" s="1" t="s">
         <v>28</v>
       </c>
@@ -10908,6 +9736,18 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A34:A41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
